--- a/ig/main/ValueSet-JDV-J276-SNOMED-UPNOS.xlsx
+++ b/ig/main/ValueSet-JDV-J276-SNOMED-UPNOS.xlsx
@@ -195,7 +195,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t xml:space="preserve">http://snomed.info/sct </t>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>

--- a/ig/main/ValueSet-JDV-J276-SNOMED-UPNOS.xlsx
+++ b/ig/main/ValueSet-JDV-J276-SNOMED-UPNOS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
